--- a/Excel-AHP-LAPTOP-ACER.xlsx
+++ b/Excel-AHP-LAPTOP-ACER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DocumentOnClass\HeHoTroRaQuyetDinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProject\pyFlask\ahp-laptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537A45C2-1D51-48D0-9E86-2E84DAF4CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7418E25-B263-4317-BAAA-CDFC01BB0841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0A51A60-7761-4BDF-8416-BEBEA71A62FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{D0A51A60-7761-4BDF-8416-BEBEA71A62FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1971,27 +1971,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2031,26 +2010,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2060,6 +2039,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2088,6 +2070,30 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2096,12 +2102,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2550,7 +2550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C241D5-93E8-4D20-8744-9B1EA4A713BA}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -2573,97 +2573,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="H1" s="112" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="H1" s="125" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="112"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="H2" s="106" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="H2" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="106"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="123" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="H3" s="106" t="s">
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="H3" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="106"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="119" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="106"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="122" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
       <c r="K5" s="100"/>
     </row>
     <row r="6" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="81"/>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
       <c r="I6" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="108" t="s">
+      <c r="J6" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
       <c r="M6" s="84" t="s">
         <v>68</v>
       </c>
@@ -3157,36 +3157,36 @@
     </row>
     <row r="18" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="121"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:15" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="114"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="107"/>
     </row>
     <row r="21" spans="1:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="115"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="116"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="109"/>
     </row>
     <row r="22" spans="1:15" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="105" t="s">
@@ -4201,14 +4201,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:J5"/>
@@ -4218,6 +4210,14 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4228,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6DF48C-A76F-453C-B120-95B1446105CA}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -4353,7 +4353,7 @@
       <c r="K5" s="155"/>
       <c r="L5" s="69" cm="1">
         <f t="array" ref="L5:L11">'Tiêu chí'!I24:I30</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="K6" s="155"/>
       <c r="L6" s="69">
-        <v>0.14285714285714282</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="K7" s="155"/>
       <c r="L7" s="69">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="K8" s="155"/>
       <c r="L8" s="69">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="K9" s="156"/>
       <c r="L9" s="69">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="K10" s="155"/>
       <c r="L10" s="69">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="K11" s="155"/>
       <c r="L11" s="69">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -4656,7 +4656,7 @@
       <c r="D17" s="77"/>
       <c r="E17" s="152" t="str">
         <f>INDEX(A17:A27,MATCH(MAX(B17:B27),B17:B27,0))</f>
-        <v>Predator Triton 300 SE PT314-52s-7169</v>
+        <v>Aspire 3 A315-58-32BG</v>
       </c>
       <c r="F17" s="152"/>
       <c r="G17" s="152"/>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="B18" s="69" cm="1">
         <f t="array" ref="B18:B27">MMULT(B5:H14,_xlfn.ANCHORARRAY(L5))</f>
-        <v>7.7299158275640281E-2</v>
+        <v>0.17383531653551126</v>
       </c>
       <c r="C18" s="78" cm="1">
         <f t="array" ref="C18:C27">_xlfn.ANCHORARRAY(B18)</f>
-        <v>7.7299158275640281E-2</v>
+        <v>0.17383531653551126</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4679,10 +4679,10 @@
         <v>92</v>
       </c>
       <c r="B19" s="69">
-        <v>7.9183960369672013E-2</v>
+        <v>0.13198842574056222</v>
       </c>
       <c r="C19" s="78">
-        <v>7.9183960369672013E-2</v>
+        <v>0.13198842574056222</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4690,38 +4690,38 @@
         <v>93</v>
       </c>
       <c r="B20" s="69">
-        <v>0.11966314752411993</v>
+        <v>0.11643025659985511</v>
       </c>
       <c r="C20" s="78">
-        <v>0.11966314752411993</v>
-      </c>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
+        <v>0.11643025659985511</v>
+      </c>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="71" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="69">
-        <v>8.3676066492370998E-2</v>
+        <v>6.898639812290859E-2</v>
       </c>
       <c r="C21" s="78">
-        <v>8.3676066492370998E-2</v>
-      </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
+        <v>6.898639812290859E-2</v>
+      </c>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="72" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="69">
-        <v>5.643137241033902E-2</v>
+        <v>5.8739804502622346E-2</v>
       </c>
       <c r="C22" s="78">
-        <v>5.643137241033902E-2</v>
+        <v>5.8739804502622346E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -4729,10 +4729,10 @@
         <v>96</v>
       </c>
       <c r="B23" s="69">
-        <v>6.3018864129981006E-2</v>
+        <v>5.6003239424127021E-2</v>
       </c>
       <c r="C23" s="78">
-        <v>6.3018864129981006E-2</v>
+        <v>5.6003239424127021E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -4740,10 +4740,10 @@
         <v>97</v>
       </c>
       <c r="B24" s="69">
-        <v>0.13006792098885567</v>
+        <v>6.8928923273810352E-2</v>
       </c>
       <c r="C24" s="78">
-        <v>0.13006792098885567</v>
+        <v>6.8928923273810352E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4751,10 +4751,10 @@
         <v>98</v>
       </c>
       <c r="B25" s="69">
-        <v>0.17548818382847961</v>
+        <v>9.3749116944667879E-2</v>
       </c>
       <c r="C25" s="78">
-        <v>0.17548818382847961</v>
+        <v>9.3749116944667879E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4762,10 +4762,10 @@
         <v>99</v>
       </c>
       <c r="B26" s="69">
-        <v>0.1073330553910305</v>
+        <v>0.12723078369934471</v>
       </c>
       <c r="C26" s="78">
-        <v>0.1073330553910305</v>
+        <v>0.12723078369934471</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -4773,10 +4773,10 @@
         <v>100</v>
       </c>
       <c r="B27" s="69">
-        <v>0.10783827058951076</v>
+        <v>0.10410773515659041</v>
       </c>
       <c r="C27" s="78">
-        <v>0.10783827058951076</v>
+        <v>0.10410773515659041</v>
       </c>
     </row>
   </sheetData>
@@ -4805,8 +4805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9459C0-2861-4963-8BD2-CA7E7832883E}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4826,27 +4826,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="2" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="144"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
@@ -4920,30 +4920,30 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
     </row>
     <row r="12" spans="1:11" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="11">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
@@ -5003,25 +5003,25 @@
       </c>
       <c r="B14" s="11">
         <f>1/C13</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F14" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G14" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H14" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="C15" s="11">
         <f>1/D14</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="C16" s="11">
         <f>1/E14</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D16" s="11">
         <f>1/E15</f>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C17" s="14">
         <f>1/F14</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D17" s="14">
         <f>1/F15</f>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C18" s="12">
         <f>1/G14</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D18" s="12">
         <f>1/G15</f>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="C19" s="12">
         <f>1/H14</f>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D19" s="12">
         <f>1/H15</f>
@@ -5180,46 +5180,46 @@
       </c>
       <c r="B20" s="17">
         <f>SUM(B13:B19)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" ref="C20:H20" si="0">SUM(C13:C19)</f>
-        <v>7</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="139" t="s">
+      <c r="A22" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
     </row>
     <row r="23" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
@@ -5256,35 +5256,35 @@
       </c>
       <c r="B24" s="19">
         <f>B13/$B$20</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C24" s="19">
         <f>C13/$C$20</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="D24" s="19">
         <f>D13/$D$20</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E24" s="19">
         <f>E13/$E$20</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F24" s="19">
         <f>F13/$F$20</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G24" s="19">
         <f>G13/$G$20</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H24" s="19">
         <f>H13/$H$20</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I24" s="20">
         <f>SUM(B24:H24)/7</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -5293,35 +5293,35 @@
       </c>
       <c r="B25" s="19">
         <f t="shared" ref="B25:B30" si="1">B14/$B$20</f>
-        <v>0.14285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="C25" s="19">
         <f t="shared" ref="C25:C30" si="2">C14/$C$20</f>
-        <v>0.14285714285714285</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="D25" s="19">
         <f t="shared" ref="D25:D30" si="3">D14/$D$20</f>
-        <v>0.14285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ref="E25:E30" si="4">E14/$E$20</f>
-        <v>0.14285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" ref="F25:F30" si="5">F14/$F$20</f>
-        <v>0.14285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="G25" s="19">
         <f t="shared" ref="G25:G30" si="6">G14/$G$20</f>
-        <v>0.14285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" ref="H25:H30" si="7">H14/$H$20</f>
-        <v>0.14285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" ref="I25:I30" si="8">SUM(B25:H25)/7</f>
-        <v>0.14285714285714282</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -5330,35 +5330,35 @@
       </c>
       <c r="B26" s="19">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C26" s="19">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="D26" s="19">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F26" s="19">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G26" s="19">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" si="7"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="8"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -5367,35 +5367,35 @@
       </c>
       <c r="B27" s="19">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C27" s="19">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="D27" s="19">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F27" s="19">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="7"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="8"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -5404,35 +5404,35 @@
       </c>
       <c r="B28" s="19">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C28" s="19">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="D28" s="19">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G28" s="19">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="7"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I28" s="20">
         <f t="shared" si="8"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -5441,35 +5441,35 @@
       </c>
       <c r="B29" s="19">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C29" s="19">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="D29" s="19">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F29" s="19">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G29" s="19">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="7"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I29" s="20">
         <f t="shared" si="8"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -5478,35 +5478,35 @@
       </c>
       <c r="B30" s="19">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C30" s="19">
         <f t="shared" si="2"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="D30" s="19">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" si="5"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G30" s="19">
         <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="7"/>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="I30" s="20">
         <f t="shared" si="8"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B31" s="21">
         <f>SUM(B24:B30)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C31" s="21">
         <f t="shared" ref="C31:H31" si="9">SUM(C24:C30)</f>
@@ -5523,41 +5523,41 @@
       </c>
       <c r="D31" s="21">
         <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F31" s="21">
         <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H31" s="21">
         <f t="shared" si="9"/>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I31" s="21">
         <f>SUM(I24:I30)</f>
-        <v>0.99999999999999967</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
     </row>
     <row r="34" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
@@ -5591,31 +5591,31 @@
       </c>
       <c r="B35" s="52">
         <f>B13*$I$24</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C35" s="52">
         <f>C13*$I$25</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D35" s="52">
         <f>D13*$I$26</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E35" s="52">
         <f>E13*$I$27</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F35" s="52">
         <f>F13*$I$28</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G35" s="52">
         <f>G13*$I$29</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H35" s="52">
         <f>H13*$I$30</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5624,31 +5624,31 @@
       </c>
       <c r="B36" s="52">
         <f t="shared" ref="B36:B40" si="10">B14*$I$24</f>
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="C36" s="52">
         <f t="shared" ref="C36:C41" si="11">C14*$I$25</f>
-        <v>0.14285714285714282</v>
+        <v>0.6</v>
       </c>
       <c r="D36" s="52">
         <f t="shared" ref="D36:D41" si="12">D14*$I$26</f>
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="E36" s="52">
         <f t="shared" ref="E36:E41" si="13">E14*$I$27</f>
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="F36" s="52">
         <f t="shared" ref="F36:F41" si="14">F14*$I$28</f>
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="G36" s="52">
         <f t="shared" ref="G36:G41" si="15">G14*$I$29</f>
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="H36" s="52">
         <f t="shared" ref="H36:H41" si="16">H14*$I$30</f>
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5657,31 +5657,31 @@
       </c>
       <c r="B37" s="52">
         <f t="shared" si="10"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C37" s="52">
         <f t="shared" si="11"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D37" s="52">
         <f t="shared" si="12"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E37" s="52">
         <f t="shared" si="13"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F37" s="52">
         <f t="shared" si="14"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G37" s="52">
         <f t="shared" si="15"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H37" s="52">
         <f t="shared" si="16"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5690,31 +5690,31 @@
       </c>
       <c r="B38" s="52">
         <f t="shared" si="10"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C38" s="52">
         <f t="shared" si="11"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D38" s="52">
         <f t="shared" si="12"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E38" s="52">
         <f t="shared" si="13"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F38" s="52">
         <f t="shared" si="14"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G38" s="52">
         <f t="shared" si="15"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H38" s="52">
         <f t="shared" si="16"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5723,31 +5723,31 @@
       </c>
       <c r="B39" s="52">
         <f t="shared" si="10"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C39" s="52">
         <f t="shared" si="11"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D39" s="52">
         <f t="shared" si="12"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E39" s="52">
         <f t="shared" si="13"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F39" s="52">
         <f t="shared" si="14"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G39" s="52">
         <f t="shared" si="15"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H39" s="52">
         <f t="shared" si="16"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5756,31 +5756,31 @@
       </c>
       <c r="B40" s="52">
         <f t="shared" si="10"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C40" s="52">
         <f t="shared" si="11"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D40" s="52">
         <f t="shared" si="12"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E40" s="52">
         <f t="shared" si="13"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F40" s="52">
         <f t="shared" si="14"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G40" s="52">
         <f t="shared" si="15"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H40" s="52">
         <f t="shared" si="16"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5789,31 +5789,31 @@
       </c>
       <c r="B41" s="52">
         <f>B19*$I$24</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C41" s="52">
         <f t="shared" si="11"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D41" s="52">
         <f t="shared" si="12"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E41" s="52">
         <f t="shared" si="13"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F41" s="52">
         <f t="shared" si="14"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G41" s="52">
         <f t="shared" si="15"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H41" s="52">
         <f t="shared" si="16"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5828,19 +5828,19 @@
     </row>
     <row r="43" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="137" t="s">
+      <c r="A44" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="137"/>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="137"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
+      <c r="J44" s="131"/>
+      <c r="K44" s="131"/>
     </row>
     <row r="45" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="s">
@@ -5883,37 +5883,37 @@
       </c>
       <c r="B46" s="52" cm="1">
         <f t="array" ref="B46:H52">B35:H41</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C46" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D46" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E46" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F46" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G46" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H46" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="I46" s="53">
         <f>SUM(B46:H46)</f>
-        <v>0.99999999999999967</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="J46" s="53" cm="1">
         <f t="array" ref="J46:J52">I24:I30</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="K46" s="39">
         <f>I46/J46</f>
-        <v>6.9999999999999991</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5921,36 +5921,36 @@
         <v>64</v>
       </c>
       <c r="B47" s="52">
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="C47" s="52">
-        <v>0.14285714285714282</v>
+        <v>0.6</v>
       </c>
       <c r="D47" s="52">
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="E47" s="52">
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="F47" s="52">
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="G47" s="52">
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="H47" s="52">
-        <v>0.14285714285714282</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="I47" s="53">
         <f t="shared" ref="I47:I52" si="17">SUM(B47:H47)</f>
-        <v>0.99999999999999967</v>
+        <v>4.1999999999999984</v>
       </c>
       <c r="J47" s="53">
-        <v>0.14285714285714282</v>
+        <v>0.6</v>
       </c>
       <c r="K47" s="39">
         <f t="shared" ref="K47:K52" si="18">I47/J47</f>
-        <v>6.9999999999999991</v>
+        <v>6.9999999999999973</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -5958,36 +5958,36 @@
         <v>65</v>
       </c>
       <c r="B48" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C48" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D48" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E48" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F48" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G48" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H48" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="I48" s="53">
         <f t="shared" si="17"/>
-        <v>0.99999999999999967</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="J48" s="53">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="K48" s="39">
         <f t="shared" si="18"/>
-        <v>6.9999999999999991</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
@@ -5995,36 +5995,36 @@
         <v>67</v>
       </c>
       <c r="B49" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C49" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D49" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E49" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F49" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G49" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H49" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="I49" s="53">
         <f t="shared" si="17"/>
-        <v>0.99999999999999967</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="J49" s="53">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="K49" s="39">
         <f t="shared" si="18"/>
-        <v>6.9999999999999991</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
@@ -6032,36 +6032,36 @@
         <v>66</v>
       </c>
       <c r="B50" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C50" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D50" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E50" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F50" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G50" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H50" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="I50" s="53">
         <f t="shared" si="17"/>
-        <v>0.99999999999999967</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="J50" s="53">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="K50" s="39">
         <f t="shared" si="18"/>
-        <v>6.9999999999999991</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.8" x14ac:dyDescent="0.3">
@@ -6069,36 +6069,36 @@
         <v>68</v>
       </c>
       <c r="B51" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C51" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D51" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E51" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F51" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G51" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H51" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="I51" s="53">
         <f t="shared" si="17"/>
-        <v>0.99999999999999967</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="J51" s="53">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="K51" s="39">
         <f t="shared" si="18"/>
-        <v>6.9999999999999991</v>
+        <v>7</v>
       </c>
       <c r="M51" t="s">
         <v>90</v>
@@ -6109,57 +6109,57 @@
         <v>77</v>
       </c>
       <c r="B52" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C52" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D52" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="E52" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="F52" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="G52" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H52" s="52">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="I52" s="53">
         <f t="shared" si="17"/>
-        <v>0.99999999999999967</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="J52" s="53">
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="K52" s="39">
         <f t="shared" si="18"/>
-        <v>6.9999999999999991</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="138" t="s">
+      <c r="A54" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="136" t="s">
+      <c r="B54" s="132"/>
+      <c r="C54" s="132"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H54" s="136"/>
-      <c r="I54" s="133">
+      <c r="H54" s="130"/>
+      <c r="I54" s="126">
         <f>SUM(K46:K52)/7</f>
-        <v>6.9999999999999991</v>
-      </c>
-      <c r="J54" s="133"/>
+        <v>7</v>
+      </c>
+      <c r="J54" s="126"/>
     </row>
     <row r="55" spans="1:16" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
@@ -6168,84 +6168,84 @@
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:16" s="22" customFormat="1" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="132"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="140" t="e" vm="1">
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="H56" s="140"/>
-      <c r="I56" s="141">
+      <c r="H56" s="134"/>
+      <c r="I56" s="135">
         <f>(I54-7)/(7-1)</f>
-        <v>-1.4802973661668753E-16</v>
-      </c>
-      <c r="J56" s="141"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="135"/>
       <c r="K56" s="65">
         <f>I56</f>
-        <v>-1.4802973661668753E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="132" t="s">
+      <c r="A58" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="126" t="e" vm="2">
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="126"/>
-      <c r="I58" s="127">
+      <c r="H58" s="139"/>
+      <c r="I58" s="140">
         <f>I56/1.32</f>
-        <v>-1.1214373986112691E-16</v>
-      </c>
-      <c r="J58" s="127"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="140"/>
       <c r="K58" s="66">
         <f>I58</f>
-        <v>-1.1214373986112691E-16</v>
-      </c>
-      <c r="L58" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="M58" s="129"/>
-      <c r="N58" s="129"/>
-      <c r="O58" s="129"/>
-      <c r="P58" s="129"/>
+      <c r="M58" s="142"/>
+      <c r="N58" s="142"/>
+      <c r="O58" s="142"/>
+      <c r="P58" s="142"/>
     </row>
     <row r="59" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:16" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="131" t="e" vm="3">
+      <c r="A60" s="144" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B60" s="131"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="131"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
     </row>
     <row r="61" spans="1:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="130" t="s">
+      <c r="A62" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
     </row>
     <row r="63" spans="1:16" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="56" t="s">
@@ -6264,11 +6264,11 @@
       </c>
       <c r="B64" s="58">
         <f t="shared" ref="B64:B70" si="19">J46</f>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C64" s="59">
         <f t="shared" ref="C64:C70" si="20">_xlfn.RANK.EQ(B64,$B$64:$B$70,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="B65" s="58">
         <f t="shared" si="19"/>
-        <v>0.14285714285714282</v>
+        <v>0.6</v>
       </c>
       <c r="C65" s="59">
         <f t="shared" si="20"/>
@@ -6290,11 +6290,11 @@
       </c>
       <c r="B66" s="58">
         <f t="shared" si="19"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C66" s="59">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -6303,11 +6303,11 @@
       </c>
       <c r="B67" s="58">
         <f t="shared" si="19"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C67" s="59">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -6316,11 +6316,11 @@
       </c>
       <c r="B68" s="58">
         <f t="shared" si="19"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C68" s="59">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -6329,11 +6329,11 @@
       </c>
       <c r="B69" s="58">
         <f t="shared" si="19"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C69" s="59">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
@@ -6342,15 +6342,22 @@
       </c>
       <c r="B70" s="58">
         <f t="shared" si="19"/>
-        <v>0.14285714285714282</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="C70" s="59">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="L58:P58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A58:F58"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A9:H9"/>
@@ -6364,13 +6371,6 @@
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A58:F58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6402,35 +6402,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
@@ -6910,20 +6910,20 @@
     </row>
     <row r="16" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -7504,22 +7504,22 @@
     </row>
     <row r="30" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -8141,19 +8141,19 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="127">
+      <c r="D44" s="148"/>
+      <c r="E44" s="140">
         <f>SUM(N33:N42)/10</f>
         <v>10.861810679643641</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="140"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8162,19 +8162,19 @@
       <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="140" t="e" vm="1">
+      <c r="B46" s="129"/>
+      <c r="C46" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141">
+      <c r="D46" s="134"/>
+      <c r="E46" s="135">
         <f>(E44-10)/(10-1)</f>
         <v>9.5756742182626794E-2</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="65">
         <f>E46</f>
         <v>9.5756742182626794E-2</v>
@@ -8185,28 +8185,28 @@
       <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="126" t="e" vm="2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127">
+      <c r="D48" s="139"/>
+      <c r="E48" s="140">
         <f>E46/1.49</f>
         <v>6.4266269921226041E-2</v>
       </c>
-      <c r="F48" s="127"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="66">
         <f>E48</f>
         <v>6.4266269921226041E-2</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -8223,14 +8223,14 @@
       <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="e" vm="3">
+      <c r="A50" s="139" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -8248,15 +8248,15 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="54"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
-      <c r="G52" s="149"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="146"/>
       <c r="H52" s="42"/>
       <c r="I52" s="42"/>
       <c r="J52" s="42"/>
@@ -8421,6 +8421,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A3:K3"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A50:F50"/>
@@ -8431,13 +8438,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="E52:G52"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8469,35 +8469,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
@@ -8977,20 +8977,20 @@
     </row>
     <row r="16" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -9571,22 +9571,22 @@
     </row>
     <row r="30" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -10208,19 +10208,19 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="127">
+      <c r="D44" s="148"/>
+      <c r="E44" s="140">
         <f>SUM(N33:N42)/10</f>
         <v>11.051617594495687</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="140"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10229,19 +10229,19 @@
       <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="140" t="e" vm="1">
+      <c r="B46" s="129"/>
+      <c r="C46" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141">
+      <c r="D46" s="134"/>
+      <c r="E46" s="135">
         <f>(E44-10)/(10-1)</f>
         <v>0.11684639938840963</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="65">
         <f>E46</f>
         <v>0.11684639938840963</v>
@@ -10252,28 +10252,28 @@
       <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="126" t="e" vm="2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127">
+      <c r="D48" s="139"/>
+      <c r="E48" s="140">
         <f>E46/1.49</f>
         <v>7.8420402274100423E-2</v>
       </c>
-      <c r="F48" s="127"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="65">
         <f>E48</f>
         <v>7.8420402274100423E-2</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -10290,14 +10290,14 @@
       <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="e" vm="3">
+      <c r="A50" s="139" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -10316,11 +10316,11 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="42"/>
@@ -10489,6 +10489,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A52:C52"/>
@@ -10498,13 +10505,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10536,35 +10536,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
@@ -11044,20 +11044,20 @@
     </row>
     <row r="16" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -11638,22 +11638,22 @@
     </row>
     <row r="30" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -12275,19 +12275,19 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="127">
+      <c r="D44" s="148"/>
+      <c r="E44" s="140">
         <f>SUM(N33:N42)/10</f>
         <v>10.826115103374651</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="140"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12296,19 +12296,19 @@
       <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="140" t="e" vm="1">
+      <c r="B46" s="129"/>
+      <c r="C46" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141">
+      <c r="D46" s="134"/>
+      <c r="E46" s="135">
         <f>(E44-10)/(10-1)</f>
         <v>9.1790567041627857E-2</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="65">
         <f>E46</f>
         <v>9.1790567041627857E-2</v>
@@ -12319,28 +12319,28 @@
       <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="126" t="e" vm="2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127">
+      <c r="D48" s="139"/>
+      <c r="E48" s="140">
         <f>E46/1.49</f>
         <v>6.1604407410488497E-2</v>
       </c>
-      <c r="F48" s="127"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="65">
         <f>E48</f>
         <v>6.1604407410488497E-2</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -12357,14 +12357,14 @@
       <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="e" vm="3">
+      <c r="A50" s="139" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -12383,11 +12383,11 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="42"/>
@@ -12556,6 +12556,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A52:C52"/>
@@ -12565,13 +12572,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12603,35 +12603,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
@@ -13111,20 +13111,20 @@
     </row>
     <row r="16" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -13705,22 +13705,22 @@
     </row>
     <row r="30" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -14342,19 +14342,19 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="127">
+      <c r="D44" s="148"/>
+      <c r="E44" s="140">
         <f>SUM(N33:N42)/10</f>
         <v>10.538141762210458</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="140"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14363,19 +14363,19 @@
       <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="140" t="e" vm="1">
+      <c r="B46" s="129"/>
+      <c r="C46" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141">
+      <c r="D46" s="134"/>
+      <c r="E46" s="135">
         <f>(E44-10)/(10-1)</f>
         <v>5.9793529134495316E-2</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="65">
         <f>E46</f>
         <v>5.9793529134495316E-2</v>
@@ -14386,28 +14386,28 @@
       <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="126" t="e" vm="2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127">
+      <c r="D48" s="139"/>
+      <c r="E48" s="140">
         <f>E46/1.49</f>
         <v>4.0129885325164642E-2</v>
       </c>
-      <c r="F48" s="127"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="65">
         <f>E48</f>
         <v>4.0129885325164642E-2</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -14424,14 +14424,14 @@
       <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="e" vm="3">
+      <c r="A50" s="139" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -14450,11 +14450,11 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="42"/>
@@ -14623,6 +14623,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A52:C52"/>
@@ -14632,13 +14639,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14670,35 +14670,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
@@ -15178,20 +15178,20 @@
     </row>
     <row r="16" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -15772,22 +15772,22 @@
     </row>
     <row r="30" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -16409,19 +16409,19 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="127">
+      <c r="D44" s="148"/>
+      <c r="E44" s="140">
         <f>SUM(N33:N42)/10</f>
         <v>10.394404538678282</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="140"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16430,19 +16430,19 @@
       <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="140" t="e" vm="1">
+      <c r="B46" s="129"/>
+      <c r="C46" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141">
+      <c r="D46" s="134"/>
+      <c r="E46" s="135">
         <f>(E44-10)/(10-1)</f>
         <v>4.3822726519809133E-2</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="65">
         <f>E46</f>
         <v>4.3822726519809133E-2</v>
@@ -16453,28 +16453,28 @@
       <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="126" t="e" vm="2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127">
+      <c r="D48" s="139"/>
+      <c r="E48" s="140">
         <f>E46/1.49</f>
         <v>2.9411225852220894E-2</v>
       </c>
-      <c r="F48" s="127"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="65">
         <f>E48</f>
         <v>2.9411225852220894E-2</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -16491,14 +16491,14 @@
       <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="e" vm="3">
+      <c r="A50" s="139" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -16517,11 +16517,11 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="42"/>
@@ -16690,6 +16690,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A52:C52"/>
@@ -16699,13 +16706,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16737,35 +16737,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
@@ -17245,20 +17245,20 @@
     </row>
     <row r="16" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -17839,22 +17839,22 @@
     </row>
     <row r="30" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -18476,19 +18476,19 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="127">
+      <c r="D44" s="148"/>
+      <c r="E44" s="140">
         <f>SUM(N33:N42)/10</f>
         <v>10</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="140"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18497,19 +18497,19 @@
       <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="140" t="e" vm="1">
+      <c r="B46" s="129"/>
+      <c r="C46" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141">
+      <c r="D46" s="134"/>
+      <c r="E46" s="135">
         <f>(E44-10)/(10-1)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="65">
         <f>E46</f>
         <v>0</v>
@@ -18520,28 +18520,28 @@
       <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="126" t="e" vm="2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127">
+      <c r="D48" s="139"/>
+      <c r="E48" s="140">
         <f>E46/1.49</f>
         <v>0</v>
       </c>
-      <c r="F48" s="127"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="65">
         <f>E48</f>
         <v>0</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -18558,14 +18558,14 @@
       <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="e" vm="3">
+      <c r="A50" s="139" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -18584,11 +18584,11 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="42"/>
@@ -18757,6 +18757,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A52:C52"/>
@@ -18766,13 +18773,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18804,35 +18804,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
@@ -19312,20 +19312,20 @@
     </row>
     <row r="16" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:14" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:14" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
@@ -19906,22 +19906,22 @@
     </row>
     <row r="30" spans="1:14" ht="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
     </row>
     <row r="32" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
@@ -20543,19 +20543,19 @@
       <c r="L43" s="43"/>
     </row>
     <row r="44" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="147"/>
-      <c r="C44" s="146" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="146"/>
-      <c r="E44" s="127">
+      <c r="D44" s="148"/>
+      <c r="E44" s="140">
         <f>SUM(N33:N42)/10</f>
         <v>11.139515496686993</v>
       </c>
-      <c r="F44" s="127"/>
+      <c r="F44" s="140"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -20564,19 +20564,19 @@
       <c r="K45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="132" t="s">
+      <c r="A46" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="132"/>
-      <c r="C46" s="140" t="e" vm="1">
+      <c r="B46" s="129"/>
+      <c r="C46" s="134" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="141">
+      <c r="D46" s="134"/>
+      <c r="E46" s="135">
         <f>(E44-10)/(10-1)</f>
         <v>0.12661283296522147</v>
       </c>
-      <c r="F46" s="141"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="65">
         <f>E46</f>
         <v>0.12661283296522147</v>
@@ -20587,28 +20587,28 @@
       <c r="K47" s="42"/>
     </row>
     <row r="48" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="132" t="s">
+      <c r="A48" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="132"/>
-      <c r="C48" s="126" t="e" vm="2">
+      <c r="B48" s="129"/>
+      <c r="C48" s="139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="127">
+      <c r="D48" s="139"/>
+      <c r="E48" s="140">
         <f>E46/1.49</f>
         <v>8.4975055681356687E-2</v>
       </c>
-      <c r="F48" s="127"/>
+      <c r="F48" s="140"/>
       <c r="G48" s="65">
         <f>E48</f>
         <v>8.4975055681356687E-2</v>
       </c>
-      <c r="H48" s="128" t="s">
+      <c r="H48" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="42"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -20625,14 +20625,14 @@
       <c r="K49" s="42"/>
     </row>
     <row r="50" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="126" t="e" vm="3">
+      <c r="A50" s="139" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -20651,11 +20651,11 @@
       <c r="K51" s="42"/>
     </row>
     <row r="52" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="130"/>
-      <c r="C52" s="130"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="143"/>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
       <c r="F52" s="42"/>
@@ -20824,6 +20824,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A52:C52"/>
@@ -20833,13 +20840,6 @@
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
